--- a/data/trans_orig/P14A11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B3BFFFD-5891-497B-986A-9A3783287A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A15C261-643D-4B1D-AAB4-8055CCEDCC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F421D3AB-F7FA-4463-ABB7-70D82564328E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D42AE323-9C66-453D-8433-1D9A8D4C9C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="118">
   <si>
     <t>Población que recibe medicación o terapia por infarto de miocardio en 2012 (Tasa respuesta: 1,54%)</t>
   </si>
@@ -312,19 +312,19 @@
     <t>96,23%</t>
   </si>
   <si>
-    <t>88,13%</t>
+    <t>88,3%</t>
   </si>
   <si>
     <t>96,79%</t>
   </si>
   <si>
-    <t>84,2%</t>
+    <t>84,07%</t>
   </si>
   <si>
     <t>96,49%</t>
   </si>
   <si>
-    <t>89,97%</t>
+    <t>90,22%</t>
   </si>
   <si>
     <t>99,03%</t>
@@ -333,13 +333,13 @@
     <t>3,77%</t>
   </si>
   <si>
-    <t>11,87%</t>
+    <t>11,7%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>15,8%</t>
+    <t>15,93%</t>
   </si>
   <si>
     <t>3,51%</t>
@@ -348,61 +348,49 @@
     <t>0,97%</t>
   </si>
   <si>
-    <t>10,03%</t>
+    <t>9,78%</t>
   </si>
   <si>
     <t>92,65%</t>
   </si>
   <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>79,97%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>86,95%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
+    <t>20,03%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
+    <t>13,05%</t>
   </si>
 </sst>
 </file>
@@ -814,7 +802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA942D7-F7F6-41C5-91DF-C008523C6874}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC704FA9-6DA9-4476-AA70-0F6CC46D09B2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1997,7 +1985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA5A811-6C37-49BD-9130-40CB7B30147E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F646A54-F614-48CE-A11D-06C5B56F6AB1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3048,7 +3036,7 @@
         <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="M22" s="7">
         <v>98</v>
@@ -3057,13 +3045,13 @@
         <v>103237</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3066,13 @@
         <v>4910</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3093,13 +3081,13 @@
         <v>3178</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -3108,13 +3096,13 @@
         <v>8088</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A11-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A15C261-643D-4B1D-AAB4-8055CCEDCC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26D6739F-3DFD-4AE8-A771-73BC17D88027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D42AE323-9C66-453D-8433-1D9A8D4C9C0E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F43BBCD6-CEB9-4721-88FD-14DDEAF0A998}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="116">
   <si>
     <t>Población que recibe medicación o terapia por infarto de miocardio en 2012 (Tasa respuesta: 1,54%)</t>
   </si>
@@ -114,31 +114,25 @@
     <t>76,2%</t>
   </si>
   <si>
-    <t>24,39%</t>
-  </si>
-  <si>
     <t>62,65%</t>
   </si>
   <si>
     <t>70,17%</t>
   </si>
   <si>
-    <t>27,32%</t>
+    <t>25,97%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>75,61%</t>
-  </si>
-  <si>
     <t>37,35%</t>
   </si>
   <si>
     <t>29,83%</t>
   </si>
   <si>
-    <t>72,68%</t>
+    <t>74,03%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -168,103 +162,103 @@
     <t>93,25%</t>
   </si>
   <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>78,02%</t>
+    <t>84,0%</t>
   </si>
   <si>
     <t>94,31%</t>
   </si>
   <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>21,98%</t>
+    <t>16,0%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
   </si>
   <si>
     <t>94,0%</t>
   </si>
   <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
+    <t>79,29%</t>
+  </si>
+  <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>87,88%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
+    <t>20,71%</t>
+  </si>
+  <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>12,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por infarto de miocardio en 2015 (Tasa respuesta: 1,61%)</t>
+    <t>Población que recibe medicación o terapia por infarto de miocardio en 2016 (Tasa respuesta: 1,61%)</t>
   </si>
   <si>
     <t>73,18%</t>
   </si>
   <si>
-    <t>32,54%</t>
+    <t>33,63%</t>
   </si>
   <si>
     <t>50,51%</t>
@@ -273,16 +267,16 @@
     <t>66,28%</t>
   </si>
   <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>67,46%</t>
+    <t>66,37%</t>
   </si>
   <si>
     <t>49,49%</t>
@@ -291,10 +285,10 @@
     <t>33,72%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -312,19 +306,19 @@
     <t>96,23%</t>
   </si>
   <si>
-    <t>88,3%</t>
+    <t>88,35%</t>
   </si>
   <si>
     <t>96,79%</t>
   </si>
   <si>
-    <t>84,07%</t>
+    <t>86,81%</t>
   </si>
   <si>
     <t>96,49%</t>
   </si>
   <si>
-    <t>90,22%</t>
+    <t>90,15%</t>
   </si>
   <si>
     <t>99,03%</t>
@@ -333,13 +327,13 @@
     <t>3,77%</t>
   </si>
   <si>
-    <t>11,7%</t>
+    <t>11,65%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>15,93%</t>
+    <t>13,19%</t>
   </si>
   <si>
     <t>3,51%</t>
@@ -348,49 +342,49 @@
     <t>0,97%</t>
   </si>
   <si>
-    <t>9,78%</t>
+    <t>9,85%</t>
   </si>
   <si>
     <t>92,65%</t>
   </si>
   <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>79,97%</t>
+    <t>81,08%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>86,95%</t>
+    <t>96,81%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>20,03%</t>
+    <t>18,92%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>13,05%</t>
+    <t>3,19%</t>
   </si>
 </sst>
 </file>
@@ -802,7 +796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC704FA9-6DA9-4476-AA70-0F6CC46D09B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0F8925-D4D5-4969-A196-AB1EA93230DA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1358,7 +1352,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -1370,7 +1364,7 @@
         <v>2145</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
@@ -1385,10 +1379,10 @@
         <v>5395</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -1406,13 +1400,13 @@
         <v>1015</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1421,7 +1415,7 @@
         <v>1278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
@@ -1436,13 +1430,13 @@
         <v>2294</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,7 +1492,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1513,7 +1507,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>17</v>
@@ -1528,7 +1522,7 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>17</v>
@@ -1543,7 +1537,7 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>17</v>
@@ -1567,7 +1561,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1582,7 +1576,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1597,7 +1591,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,7 +1647,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1665,13 +1659,13 @@
         <v>44483</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -1680,10 +1674,10 @@
         <v>26251</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -1695,13 +1689,13 @@
         <v>70733</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,13 +1710,13 @@
         <v>3222</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -1731,13 +1725,13 @@
         <v>1043</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -1746,13 +1740,13 @@
         <v>4266</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1814,13 @@
         <v>66398</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -1835,10 +1829,10 @@
         <v>35854</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -1850,13 +1844,13 @@
         <v>102253</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,13 +1865,13 @@
         <v>4238</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -1886,13 +1880,13 @@
         <v>2322</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -1901,13 +1895,13 @@
         <v>6560</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,7 +1957,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1985,7 +1979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F646A54-F614-48CE-A11D-06C5B56F6AB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55FB5F5-A868-48A9-BAB6-619FA2B2918C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2002,7 +1996,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2550,10 +2544,10 @@
         <v>6650</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -2565,7 +2559,7 @@
         <v>2007</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
@@ -2580,13 +2574,13 @@
         <v>8658</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2595,13 @@
         <v>2438</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2616,7 +2610,7 @@
         <v>1967</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
@@ -2631,13 +2625,13 @@
         <v>4404</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,7 +2687,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2708,7 +2702,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>17</v>
@@ -2738,7 +2732,7 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>17</v>
@@ -2762,7 +2756,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2792,7 +2786,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,7 +2842,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2860,10 +2854,10 @@
         <v>40158</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -2875,10 +2869,10 @@
         <v>36457</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -2890,13 +2884,13 @@
         <v>76615</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2905,13 @@
         <v>1574</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2926,13 +2920,13 @@
         <v>1211</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -2941,13 +2935,13 @@
         <v>2785</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +3009,13 @@
         <v>61865</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -3030,13 +3024,13 @@
         <v>41373</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M22" s="7">
         <v>98</v>
@@ -3045,13 +3039,13 @@
         <v>103237</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3060,13 @@
         <v>4910</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3081,13 +3075,13 @@
         <v>3178</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -3096,13 +3090,13 @@
         <v>8088</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,7 +3152,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
